--- a/Luban/ExcelConfig/Datas/__tables__.xlsx
+++ b/Luban/ExcelConfig/Datas/__tables__.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -185,6 +198,15 @@
   </si>
   <si>
     <t>ability.xlsx</t>
+  </si>
+  <si>
+    <t>ability_upgrade.TbAbilityUpgradeConfig</t>
+  </si>
+  <si>
+    <t>AbilityUpgradeConfig</t>
+  </si>
+  <si>
+    <t>ability_upgrade.xlsx</t>
   </si>
   <si>
     <t>ability_assist.TbAbilityAssistConfig</t>
@@ -244,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1237,16 +1259,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.5833333333333" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="55.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="22.875" style="3" customWidth="1"/>
@@ -1600,6 +1622,23 @@
         <v>44</v>
       </c>
     </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Luban/ExcelConfig/Datas/__tables__.xlsx
+++ b/Luban/ExcelConfig/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>##var</t>
   </si>
@@ -261,6 +261,24 @@
   </si>
   <si>
     <t>adventure.xlsx</t>
+  </si>
+  <si>
+    <t>appearance.TbAppearanceConfig</t>
+  </si>
+  <si>
+    <t>AppearanceConfig</t>
+  </si>
+  <si>
+    <t>appearance.xlsx</t>
+  </si>
+  <si>
+    <t>bolt.TbBoltConfig</t>
+  </si>
+  <si>
+    <t>BoltConfig</t>
+  </si>
+  <si>
+    <t>bolt.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1277,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1639,6 +1657,43 @@
         <v>44</v>
       </c>
     </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Luban/ExcelConfig/Datas/__tables__.xlsx
+++ b/Luban/ExcelConfig/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -200,6 +200,24 @@
     <t>ability.xlsx</t>
   </si>
   <si>
+    <t>ability.TbAbilityPatchConfig</t>
+  </si>
+  <si>
+    <t>AbilityPatchConfig</t>
+  </si>
+  <si>
+    <t>ability_patch.xlsx</t>
+  </si>
+  <si>
+    <t>ability.TbAbilityTraitConfig</t>
+  </si>
+  <si>
+    <t>AbilityTraitConfig</t>
+  </si>
+  <si>
+    <t>ability_trait.xlsx</t>
+  </si>
+  <si>
     <t>ability_upgrade.TbAbilityUpgradeConfig</t>
   </si>
   <si>
@@ -263,15 +281,6 @@
     <t>adventure.xlsx</t>
   </si>
   <si>
-    <t>appearance.TbAppearanceConfig</t>
-  </si>
-  <si>
-    <t>AppearanceConfig</t>
-  </si>
-  <si>
-    <t>appearance.xlsx</t>
-  </si>
-  <si>
     <t>bolt.TbBoltConfig</t>
   </si>
   <si>
@@ -279,6 +288,24 @@
   </si>
   <si>
     <t>bolt.xlsx</t>
+  </si>
+  <si>
+    <t>localization.TbLocalizationConfig</t>
+  </si>
+  <si>
+    <t>LocalizationConfig</t>
+  </si>
+  <si>
+    <t>localization.xlsx</t>
+  </si>
+  <si>
+    <t>localization.TbLocalizationAbilityConfig</t>
+  </si>
+  <si>
+    <t>LocalizationAbilityConfig</t>
+  </si>
+  <si>
+    <t>localization_ability.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1277,19 +1304,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="34.5833333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.4166666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="55.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.9166666666667" style="3" customWidth="1"/>
     <col min="6" max="6" width="93.75" style="3" customWidth="1"/>
     <col min="7" max="7" width="32.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="58.25" style="3" customWidth="1"/>
@@ -1442,148 +1469,156 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="12" spans="2:5">
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:5">
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="B16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D21" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>44</v>
@@ -1591,16 +1626,16 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>44</v>
@@ -1608,16 +1643,16 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>44</v>
@@ -1625,16 +1660,16 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>44</v>
@@ -1642,36 +1677,33 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="26" spans="2:6">
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>44</v>
@@ -1679,18 +1711,52 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Luban/ExcelConfig/Datas/__tables__.xlsx
+++ b/Luban/ExcelConfig/Datas/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -143,6 +143,15 @@
     <t>game_singleton.xlsx</t>
   </si>
   <si>
+    <t>synthesis.TbSynthesisConfig</t>
+  </si>
+  <si>
+    <t>SynthesisConfig</t>
+  </si>
+  <si>
+    <t>synthesis.xlsx</t>
+  </si>
+  <si>
     <t>faction.TbFactionConfig</t>
   </si>
   <si>
@@ -164,24 +173,6 @@
     <t>id,alias</t>
   </si>
   <si>
-    <t>card.TbCardConfig</t>
-  </si>
-  <si>
-    <t>CardConfig</t>
-  </si>
-  <si>
-    <t>card.xlsx</t>
-  </si>
-  <si>
-    <t>card.TbCardSynthesisConfig</t>
-  </si>
-  <si>
-    <t>CardSynthesisConfig</t>
-  </si>
-  <si>
-    <t>card_synthesis.xlsx</t>
-  </si>
-  <si>
     <t>pickable.TbPickableConfig</t>
   </si>
   <si>
@@ -218,15 +209,6 @@
     <t>ability_trait.xlsx</t>
   </si>
   <si>
-    <t>ability_upgrade.TbAbilityUpgradeConfig</t>
-  </si>
-  <si>
-    <t>AbilityUpgradeConfig</t>
-  </si>
-  <si>
-    <t>ability_upgrade.xlsx</t>
-  </si>
-  <si>
     <t>ability_assist.TbAbilityAssistConfig</t>
   </si>
   <si>
@@ -306,6 +288,15 @@
   </si>
   <si>
     <t>localization_ability.xlsx</t>
+  </si>
+  <si>
+    <t>localization.TbLocalizationAbilityPatchConfig</t>
+  </si>
+  <si>
+    <t>LocalizationAbilityPatchConfig</t>
+  </si>
+  <si>
+    <t>localization_ability_patch.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1469,227 +1460,236 @@
         <v>34</v>
       </c>
     </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D14" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
+        <v>62</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
+        <v>65</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D21" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -1706,7 +1706,7 @@
         <v>83</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -1723,41 +1723,24 @@
         <v>86</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>44</v>
+      <c r="F28" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/__tables__.xlsx
+++ b/Luban/ExcelConfig/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="97">
   <si>
     <t>##var</t>
   </si>
@@ -143,6 +143,18 @@
     <t>game_singleton.xlsx</t>
   </si>
   <si>
+    <t>common.TbPriorityStateConfig</t>
+  </si>
+  <si>
+    <t>PriorityStateConfig</t>
+  </si>
+  <si>
+    <t>behavior_states.xlsx</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
     <t>synthesis.TbSynthesisConfig</t>
   </si>
   <si>
@@ -209,13 +221,13 @@
     <t>ability_trait.xlsx</t>
   </si>
   <si>
-    <t>ability_assist.TbAbilityAssistConfig</t>
-  </si>
-  <si>
-    <t>AbilityAssistConfig</t>
-  </si>
-  <si>
-    <t>ability_assist.xlsx</t>
+    <t>item.TbPropConfig</t>
+  </si>
+  <si>
+    <t>PropConfig</t>
+  </si>
+  <si>
+    <t>prop.xlsx</t>
   </si>
   <si>
     <t>status.TbStatusConfig</t>
@@ -297,6 +309,15 @@
   </si>
   <si>
     <t>localization_ability_patch.xlsx</t>
+  </si>
+  <si>
+    <t>localization.TbLocalizationPropConfig</t>
+  </si>
+  <si>
+    <t>LocalizationPropConfig</t>
+  </si>
+  <si>
+    <t>localization_prop.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1295,13 +1316,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="38.4166666666667" style="3" customWidth="1"/>
@@ -1460,7 +1481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:6">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -1473,35 +1494,35 @@
       <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1519,228 +1540,262 @@
         <v>50</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D22" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>47</v>
+      <c r="D25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
